--- a/biology/Zoologie/Hyla_lactea/Hyla_lactea.xlsx
+++ b/biology/Zoologie/Hyla_lactea/Hyla_lactea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">"Hyla" lactea
 "Hyla" lactea est une espèce d'amphibien de la famille des Hylidés dont la position taxonomique est incertaine (Incertae sedis).
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synonyme de :
 Hyla hypocondrialis Daudin, 1800, pour Daudin, 1802
@@ -547,7 +561,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hyla lactea Lönnberg, 1896  est aussi un synonyme de Hypsiboas boans (Linnaeus, 1758)
 Hyla lactea Daudin, 1800  est aussi un synonyme de Sphaenorhynchus lacteus (Daudin, 1800)</t>
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum Vienna Joan Thomae p. 1-217 (texte intégral).</t>
         </is>
